--- a/data/nzd0504/nzd0504.xlsx
+++ b/data/nzd0504/nzd0504.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J330"/>
+  <dimension ref="A1:J331"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11367,6 +11367,42 @@
       <c r="J330" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-22 22:14:45+00:00</t>
+        </is>
+      </c>
+      <c r="B331" t="n">
+        <v>365.69</v>
+      </c>
+      <c r="C331" t="n">
+        <v>370.15</v>
+      </c>
+      <c r="D331" t="n">
+        <v>373.02</v>
+      </c>
+      <c r="E331" t="n">
+        <v>371.62</v>
+      </c>
+      <c r="F331" t="n">
+        <v>367.87</v>
+      </c>
+      <c r="G331" t="n">
+        <v>369.5700000000001</v>
+      </c>
+      <c r="H331" t="n">
+        <v>373.1585714285715</v>
+      </c>
+      <c r="I331" t="n">
+        <v>365.84</v>
+      </c>
+      <c r="J331" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -11381,7 +11417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B379"/>
+  <dimension ref="A1:B380"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15179,6 +15215,16 @@
       </c>
       <c r="B379" t="n">
         <v>0.8100000000000001</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>2025-02-22 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B380" t="n">
+        <v>0.33</v>
       </c>
     </row>
   </sheetData>
@@ -15347,28 +15393,28 @@
         <v>0.0605</v>
       </c>
       <c r="I2" t="n">
-        <v>0.6511628254049713</v>
+        <v>0.6609995255583631</v>
       </c>
       <c r="J2" t="n">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="K2" t="n">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="L2" t="n">
-        <v>0.101946548865227</v>
+        <v>0.104992584740076</v>
       </c>
       <c r="M2" t="n">
-        <v>10.21674399720788</v>
+        <v>10.23344550547195</v>
       </c>
       <c r="N2" t="n">
-        <v>177.33272900109</v>
+        <v>177.3833533047706</v>
       </c>
       <c r="O2" t="n">
-        <v>13.31663354609903</v>
+        <v>13.31853420256038</v>
       </c>
       <c r="P2" t="n">
-        <v>335.1786622151589</v>
+        <v>335.0703178157849</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -15424,28 +15470,28 @@
         <v>0.0697</v>
       </c>
       <c r="I3" t="n">
-        <v>0.654572104573009</v>
+        <v>0.6658100773825639</v>
       </c>
       <c r="J3" t="n">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="K3" t="n">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1175629081909416</v>
+        <v>0.121237366338567</v>
       </c>
       <c r="M3" t="n">
-        <v>9.457210824203939</v>
+        <v>9.478609002723768</v>
       </c>
       <c r="N3" t="n">
-        <v>152.2424974912915</v>
+        <v>152.5720679437981</v>
       </c>
       <c r="O3" t="n">
-        <v>12.33865865851274</v>
+        <v>12.35200663632424</v>
       </c>
       <c r="P3" t="n">
-        <v>337.8173202489323</v>
+        <v>337.6927600733072</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -15501,28 +15547,28 @@
         <v>0.056</v>
       </c>
       <c r="I4" t="n">
-        <v>0.7469899231002444</v>
+        <v>0.7557310336697731</v>
       </c>
       <c r="J4" t="n">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="K4" t="n">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1451561913195158</v>
+        <v>0.1485095580024767</v>
       </c>
       <c r="M4" t="n">
-        <v>9.523589106127208</v>
+        <v>9.538229769444937</v>
       </c>
       <c r="N4" t="n">
-        <v>155.1724295305809</v>
+        <v>155.1237500698184</v>
       </c>
       <c r="O4" t="n">
-        <v>12.45682260974205</v>
+        <v>12.45486852880505</v>
       </c>
       <c r="P4" t="n">
-        <v>341.9968323708094</v>
+        <v>341.900066880666</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -15578,28 +15624,28 @@
         <v>0.0576</v>
       </c>
       <c r="I5" t="n">
-        <v>0.6623538104541575</v>
+        <v>0.6681523111841539</v>
       </c>
       <c r="J5" t="n">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="K5" t="n">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1415915292769897</v>
+        <v>0.1443479190483276</v>
       </c>
       <c r="M5" t="n">
-        <v>8.96065397364111</v>
+        <v>8.956890125470194</v>
       </c>
       <c r="N5" t="n">
-        <v>126.4193028995232</v>
+        <v>126.1843511976452</v>
       </c>
       <c r="O5" t="n">
-        <v>11.24363388320356</v>
+        <v>11.2331808138944</v>
       </c>
       <c r="P5" t="n">
-        <v>346.7699693513407</v>
+        <v>346.7060820209794</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -15655,28 +15701,28 @@
         <v>0.0531</v>
       </c>
       <c r="I6" t="n">
-        <v>0.6441392377294134</v>
+        <v>0.6482637080302311</v>
       </c>
       <c r="J6" t="n">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="K6" t="n">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1259342319465275</v>
+        <v>0.1280201528016192</v>
       </c>
       <c r="M6" t="n">
-        <v>9.065909163222699</v>
+        <v>9.05474660707085</v>
       </c>
       <c r="N6" t="n">
-        <v>138.5422091993939</v>
+        <v>138.1436720623145</v>
       </c>
       <c r="O6" t="n">
-        <v>11.77039545637248</v>
+        <v>11.75345362275763</v>
       </c>
       <c r="P6" t="n">
-        <v>345.7843684547308</v>
+        <v>345.7391979748459</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -15732,28 +15778,28 @@
         <v>0.0547</v>
       </c>
       <c r="I7" t="n">
-        <v>0.658992006665703</v>
+        <v>0.6626209919309809</v>
       </c>
       <c r="J7" t="n">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="K7" t="n">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1234313706683882</v>
+        <v>0.1253094805666405</v>
       </c>
       <c r="M7" t="n">
-        <v>9.232118472501925</v>
+        <v>9.217274240983441</v>
       </c>
       <c r="N7" t="n">
-        <v>145.3680459841281</v>
+        <v>144.9257051020494</v>
       </c>
       <c r="O7" t="n">
-        <v>12.05686717120696</v>
+        <v>12.03850925580279</v>
       </c>
       <c r="P7" t="n">
-        <v>347.7820940992122</v>
+        <v>347.7419319090644</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -15809,28 +15855,28 @@
         <v>0.0383</v>
       </c>
       <c r="I8" t="n">
-        <v>0.8108971336845427</v>
+        <v>0.8141151078132519</v>
       </c>
       <c r="J8" t="n">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="K8" t="n">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1482740772437559</v>
+        <v>0.1501196462780989</v>
       </c>
       <c r="M8" t="n">
-        <v>10.30913026065423</v>
+        <v>10.28806337992022</v>
       </c>
       <c r="N8" t="n">
-        <v>174.5459773418013</v>
+        <v>173.9725096294925</v>
       </c>
       <c r="O8" t="n">
-        <v>13.21158496705832</v>
+        <v>13.18986389730737</v>
       </c>
       <c r="P8" t="n">
-        <v>348.1533064035729</v>
+        <v>348.117338847296</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -15886,28 +15932,28 @@
         <v>0.0574</v>
       </c>
       <c r="I9" t="n">
-        <v>0.6481185924091143</v>
+        <v>0.642330517966524</v>
       </c>
       <c r="J9" t="n">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="K9" t="n">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L9" t="n">
-        <v>0.09870774413739669</v>
+        <v>0.09762881843166493</v>
       </c>
       <c r="M9" t="n">
-        <v>10.15580428455041</v>
+        <v>10.14450262630915</v>
       </c>
       <c r="N9" t="n">
-        <v>173.8213934853966</v>
+        <v>173.3455160508067</v>
       </c>
       <c r="O9" t="n">
-        <v>13.18413415759247</v>
+        <v>13.16607443586761</v>
       </c>
       <c r="P9" t="n">
-        <v>356.7309793695568</v>
+        <v>356.797453897829</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -15944,7 +15990,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J330"/>
+  <dimension ref="A1:J331"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31188,6 +31234,58 @@
         </is>
       </c>
     </row>
+    <row r="331">
+      <c r="A331" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-22 22:14:45+00:00</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>-45.799979532728976,170.74160359638802</t>
+        </is>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>-45.80054916732916,170.74196819914613</t>
+        </is>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>-45.80110682592082,170.7423362093095</t>
+        </is>
+      </c>
+      <c r="E331" t="inlineStr">
+        <is>
+          <t>-45.80165211552937,170.7426921684476</t>
+        </is>
+      </c>
+      <c r="F331" t="inlineStr">
+        <is>
+          <t>-45.80218418965968,170.74311919683572</t>
+        </is>
+      </c>
+      <c r="G331" t="inlineStr">
+        <is>
+          <t>-45.80270377008247,170.74361557740505</t>
+        </is>
+      </c>
+      <c r="H331" t="inlineStr">
+        <is>
+          <t>-45.80319958227394,170.74413878502392</t>
+        </is>
+      </c>
+      <c r="I331" t="inlineStr">
+        <is>
+          <t>-45.80373130337607,170.7445936484497</t>
+        </is>
+      </c>
+      <c r="J331" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0504/nzd0504.xlsx
+++ b/data/nzd0504/nzd0504.xlsx
@@ -15238,7 +15238,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W9"/>
+  <dimension ref="A1:X9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15329,35 +15329,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -15416,27 +15421,28 @@
       <c r="P2" t="n">
         <v>335.0703178157849</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (170.73716181357062 -45.801062773750076, 170.74784008203727 -45.79845824211915)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>170.7371618135706</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-45.80106277375008</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>170.7478400820373</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-45.79845824211915</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>170.7425009478039</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-45.79976050793461</v>
       </c>
     </row>
@@ -15493,27 +15499,28 @@
       <c r="P3" t="n">
         <v>337.6927600733072</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (170.73749863568472 -45.8016972868381, 170.74811405646005 -45.79897008335666)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>170.7374986356847</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-45.8016972868381</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>170.7481140564601</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-45.79897008335666</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>170.7428063460724</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-45.80033368509738</v>
       </c>
     </row>
@@ -15570,27 +15577,28 @@
       <c r="P4" t="n">
         <v>341.900066880666</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (170.7379117348691 -45.802405764437104, 170.74833880511986 -45.79934420730976)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>170.7379117348691</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-45.8024057644371</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>170.7483388051199</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-45.79934420730976</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>170.7431252699945</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-45.80087498587343</v>
       </c>
     </row>
@@ -15647,27 +15655,28 @@
       <c r="P5" t="n">
         <v>346.7060820209794</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (170.73846258375548 -45.80321036441051, 170.74846710257808 -45.799524135752606)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>170.7384625837555</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-45.80321036441051</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>170.7484671025781</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-45.79952413575261</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>170.7434648431668</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-45.80136725008155</v>
       </c>
     </row>
@@ -15724,27 +15733,28 @@
       <c r="P6" t="n">
         <v>345.7391979748459</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (170.7390677756369 -45.80389461833133, 170.74874798063655 -45.79980741160375)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>170.7390677756369</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-45.80389461833133</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>170.7487479806366</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-45.79980741160375</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>170.7439078781367</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-45.80185101496754</v>
       </c>
     </row>
@@ -15801,27 +15811,28 @@
       <c r="P7" t="n">
         <v>347.7419319090644</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
         <is>
           <t>LINESTRING (170.73956778356722 -45.80444778214499, 170.74919471794652 -45.8002995497822)</t>
         </is>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>170.7395677835672</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>-45.80444778214499</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>170.7491947179465</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>-45.8002995497822</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>170.7443812507569</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>-45.8023736659636</v>
       </c>
     </row>
@@ -15878,27 +15889,28 @@
       <c r="P8" t="n">
         <v>348.117338847296</v>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
         <is>
           <t>LINESTRING (170.74015564936104 -45.8050734830494, 170.74953729579912 -45.80065937674141)</t>
         </is>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>170.740155649361</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>-45.8050734830494</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>170.7495372957991</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>-45.80065937674141</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>170.7448464725801</v>
       </c>
-      <c r="W8" t="n">
+      <c r="X8" t="n">
         <v>-45.8028664298954</v>
       </c>
     </row>
@@ -15955,27 +15967,28 @@
       <c r="P9" t="n">
         <v>356.797453897829</v>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr">
         <is>
           <t>LINESTRING (170.7407717655602 -45.805652104630475, 170.74995335641714 -45.801037176868896)</t>
         </is>
       </c>
-      <c r="R9" t="n">
+      <c r="S9" t="n">
         <v>170.7407717655602</v>
       </c>
-      <c r="S9" t="n">
+      <c r="T9" t="n">
         <v>-45.80565210463048</v>
       </c>
-      <c r="T9" t="n">
+      <c r="U9" t="n">
         <v>170.7499533564171</v>
       </c>
-      <c r="U9" t="n">
+      <c r="V9" t="n">
         <v>-45.8010371768689</v>
       </c>
-      <c r="V9" t="n">
+      <c r="W9" t="n">
         <v>170.7453625609887</v>
       </c>
-      <c r="W9" t="n">
+      <c r="X9" t="n">
         <v>-45.80334464074969</v>
       </c>
     </row>

--- a/data/nzd0504/nzd0504.xlsx
+++ b/data/nzd0504/nzd0504.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J331"/>
+  <dimension ref="A1:J334"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11401,6 +11401,114 @@
         <v>365.84</v>
       </c>
       <c r="J331" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-18 22:14:18+00:00</t>
+        </is>
+      </c>
+      <c r="B332" t="n">
+        <v>367.3236363636364</v>
+      </c>
+      <c r="C332" t="n">
+        <v>370.2066666666667</v>
+      </c>
+      <c r="D332" t="n">
+        <v>371.92</v>
+      </c>
+      <c r="E332" t="n">
+        <v>373.6936363636364</v>
+      </c>
+      <c r="F332" t="n">
+        <v>365.37</v>
+      </c>
+      <c r="G332" t="n">
+        <v>367.12</v>
+      </c>
+      <c r="H332" t="n">
+        <v>370.1657142857143</v>
+      </c>
+      <c r="I332" t="n">
+        <v>374.93</v>
+      </c>
+      <c r="J332" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-03 22:14:16+00:00</t>
+        </is>
+      </c>
+      <c r="B333" t="n">
+        <v>338.5145454545454</v>
+      </c>
+      <c r="C333" t="n">
+        <v>342.32</v>
+      </c>
+      <c r="D333" t="n">
+        <v>340.05</v>
+      </c>
+      <c r="E333" t="n">
+        <v>340.8445454545454</v>
+      </c>
+      <c r="F333" t="n">
+        <v>343.48</v>
+      </c>
+      <c r="G333" t="n">
+        <v>345.17</v>
+      </c>
+      <c r="H333" t="n">
+        <v>349.4914285714286</v>
+      </c>
+      <c r="I333" t="n">
+        <v>335.88</v>
+      </c>
+      <c r="J333" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-11 22:14:29+00:00</t>
+        </is>
+      </c>
+      <c r="B334" t="n">
+        <v>367.1781818181818</v>
+      </c>
+      <c r="C334" t="n">
+        <v>367.9066666666667</v>
+      </c>
+      <c r="D334" t="n">
+        <v>367.95</v>
+      </c>
+      <c r="E334" t="n">
+        <v>370.7181818181818</v>
+      </c>
+      <c r="F334" t="n">
+        <v>364.28</v>
+      </c>
+      <c r="G334" t="n">
+        <v>365.86</v>
+      </c>
+      <c r="H334" t="n">
+        <v>365.33</v>
+      </c>
+      <c r="I334" t="n">
+        <v>371.53</v>
+      </c>
+      <c r="J334" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -11417,7 +11525,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B380"/>
+  <dimension ref="A1:B385"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15225,6 +15333,56 @@
       </c>
       <c r="B380" t="n">
         <v>0.33</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>2025-03-18 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B381" t="n">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>2025-03-25 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B382" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>2025-04-02 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B383" t="n">
+        <v>-0.13</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>2025-04-03 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B384" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>2025-04-11 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B385" t="n">
+        <v>-0.5600000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -15398,28 +15556,28 @@
         <v>0.0605</v>
       </c>
       <c r="I2" t="n">
-        <v>0.6609995255583631</v>
+        <v>0.6728007829210194</v>
       </c>
       <c r="J2" t="n">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="K2" t="n">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="L2" t="n">
-        <v>0.104992584740076</v>
+        <v>0.1090556189864339</v>
       </c>
       <c r="M2" t="n">
-        <v>10.23344550547195</v>
+        <v>10.28445731551749</v>
       </c>
       <c r="N2" t="n">
-        <v>177.3833533047706</v>
+        <v>177.781243897886</v>
       </c>
       <c r="O2" t="n">
-        <v>13.31853420256038</v>
+        <v>13.33346331220385</v>
       </c>
       <c r="P2" t="n">
-        <v>335.0703178157849</v>
+        <v>334.939777072377</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -15476,28 +15634,28 @@
         <v>0.0697</v>
       </c>
       <c r="I3" t="n">
-        <v>0.6658100773825639</v>
+        <v>0.6772137900487106</v>
       </c>
       <c r="J3" t="n">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="K3" t="n">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="L3" t="n">
-        <v>0.121237366338567</v>
+        <v>0.1256279654214547</v>
       </c>
       <c r="M3" t="n">
-        <v>9.478609002723768</v>
+        <v>9.523046315892588</v>
       </c>
       <c r="N3" t="n">
-        <v>152.5720679437981</v>
+        <v>152.9595712763617</v>
       </c>
       <c r="O3" t="n">
-        <v>12.35200663632424</v>
+        <v>12.36768253458835</v>
       </c>
       <c r="P3" t="n">
-        <v>337.6927600733072</v>
+        <v>337.5658374248317</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -15554,28 +15712,28 @@
         <v>0.056</v>
       </c>
       <c r="I4" t="n">
-        <v>0.7557310336697731</v>
+        <v>0.7529783032836854</v>
       </c>
       <c r="J4" t="n">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="K4" t="n">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1485095580024767</v>
+        <v>0.1483638052437787</v>
       </c>
       <c r="M4" t="n">
-        <v>9.538229769444937</v>
+        <v>9.573007012473372</v>
       </c>
       <c r="N4" t="n">
-        <v>155.1237500698184</v>
+        <v>155.6461661460354</v>
       </c>
       <c r="O4" t="n">
-        <v>12.45486852880505</v>
+        <v>12.47582326526131</v>
       </c>
       <c r="P4" t="n">
-        <v>341.900066880666</v>
+        <v>341.9308267841993</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -15632,28 +15790,28 @@
         <v>0.0576</v>
       </c>
       <c r="I5" t="n">
-        <v>0.6681523111841539</v>
+        <v>0.6637270234541484</v>
       </c>
       <c r="J5" t="n">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="K5" t="n">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1443479190483276</v>
+        <v>0.142845722132224</v>
       </c>
       <c r="M5" t="n">
-        <v>8.956890125470194</v>
+        <v>9.004216642190856</v>
       </c>
       <c r="N5" t="n">
-        <v>126.1843511976452</v>
+        <v>127.2584175958405</v>
       </c>
       <c r="O5" t="n">
-        <v>11.2331808138944</v>
+        <v>11.28088726988443</v>
       </c>
       <c r="P5" t="n">
-        <v>346.7060820209794</v>
+        <v>346.7552077516693</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -15710,28 +15868,28 @@
         <v>0.0531</v>
       </c>
       <c r="I6" t="n">
-        <v>0.6482637080302311</v>
+        <v>0.6383581503280834</v>
       </c>
       <c r="J6" t="n">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="K6" t="n">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1280201528016192</v>
+        <v>0.1257964955895275</v>
       </c>
       <c r="M6" t="n">
-        <v>9.05474660707085</v>
+        <v>9.039394941645938</v>
       </c>
       <c r="N6" t="n">
-        <v>138.1436720623145</v>
+        <v>137.9675059230802</v>
       </c>
       <c r="O6" t="n">
-        <v>11.75345362275763</v>
+        <v>11.74595700328757</v>
       </c>
       <c r="P6" t="n">
-        <v>345.7391979748459</v>
+        <v>345.8483023901981</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -15788,28 +15946,28 @@
         <v>0.0547</v>
       </c>
       <c r="I7" t="n">
-        <v>0.6626209919309809</v>
+        <v>0.651229578507483</v>
       </c>
       <c r="J7" t="n">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="K7" t="n">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1253094805666405</v>
+        <v>0.1227151339627865</v>
       </c>
       <c r="M7" t="n">
-        <v>9.217274240983441</v>
+        <v>9.199666331470322</v>
       </c>
       <c r="N7" t="n">
-        <v>144.9257051020494</v>
+        <v>144.750248266522</v>
       </c>
       <c r="O7" t="n">
-        <v>12.03850925580279</v>
+        <v>12.03121973311609</v>
       </c>
       <c r="P7" t="n">
-        <v>347.7419319090644</v>
+        <v>347.8686951064158</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -15866,28 +16024,28 @@
         <v>0.0383</v>
       </c>
       <c r="I8" t="n">
-        <v>0.8141151078132519</v>
+        <v>0.7981738863001898</v>
       </c>
       <c r="J8" t="n">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="K8" t="n">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1501196462780989</v>
+        <v>0.146726166243599</v>
       </c>
       <c r="M8" t="n">
-        <v>10.28806337992022</v>
+        <v>10.25916934886511</v>
       </c>
       <c r="N8" t="n">
-        <v>173.9725096294925</v>
+        <v>173.4890201493978</v>
       </c>
       <c r="O8" t="n">
-        <v>13.18986389730737</v>
+        <v>13.17152307629599</v>
       </c>
       <c r="P8" t="n">
-        <v>348.117338847296</v>
+        <v>348.2964806233351</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -15944,28 +16102,28 @@
         <v>0.0574</v>
       </c>
       <c r="I9" t="n">
-        <v>0.642330517966524</v>
+        <v>0.61373547215614</v>
       </c>
       <c r="J9" t="n">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="K9" t="n">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="L9" t="n">
-        <v>0.09762881843166493</v>
+        <v>0.08903762188481668</v>
       </c>
       <c r="M9" t="n">
-        <v>10.14450262630915</v>
+        <v>10.18517681183494</v>
       </c>
       <c r="N9" t="n">
-        <v>173.3455160508067</v>
+        <v>176.7586059873422</v>
       </c>
       <c r="O9" t="n">
-        <v>13.16607443586761</v>
+        <v>13.29505945783403</v>
       </c>
       <c r="P9" t="n">
-        <v>356.797453897829</v>
+        <v>357.1276870148978</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -16003,7 +16161,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J331"/>
+  <dimension ref="A1:J334"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31299,6 +31457,162 @@
         </is>
       </c>
     </row>
+    <row r="332">
+      <c r="A332" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-18 22:14:18+00:00</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>-45.799974693202316,170.7416234386625</t>
+        </is>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>-45.80054899154862,170.74196888338284</t>
+        </is>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>-45.80111065662335,170.74232316225573</t>
+        </is>
+      </c>
+      <c r="E332" t="inlineStr">
+        <is>
+          <t>-45.8016434200611,170.7427157688434</t>
+        </is>
+      </c>
+      <c r="F332" t="inlineStr">
+        <is>
+          <t>-45.80219581402837,170.7430916646932</t>
+        </is>
+      </c>
+      <c r="G332" t="inlineStr">
+        <is>
+          <t>-45.802715332196655,170.7435887440814</t>
+        </is>
+      </c>
+      <c r="H332" t="inlineStr">
+        <is>
+          <t>-45.80321461216281,170.74410683998903</t>
+        </is>
+      </c>
+      <c r="I332" t="inlineStr">
+        <is>
+          <t>-45.80368357566726,170.7446886071802</t>
+        </is>
+      </c>
+      <c r="J332" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-03 22:14:16+00:00</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>-45.80006003748326,170.741273520714</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>-45.800635495749,170.7416321579165</t>
+        </is>
+      </c>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>-45.80122164185975,170.74194515276838</t>
+        </is>
+      </c>
+      <c r="E333" t="inlineStr">
+        <is>
+          <t>-45.801781166971374,170.7423419071005</t>
+        </is>
+      </c>
+      <c r="F333" t="inlineStr">
+        <is>
+          <t>-45.80229759670707,170.74285059277076</t>
+        </is>
+      </c>
+      <c r="G333" t="inlineStr">
+        <is>
+          <t>-45.802818919009646,170.7433483389171</t>
+        </is>
+      </c>
+      <c r="H333" t="inlineStr">
+        <is>
+          <t>-45.80331843651591,170.7438861671883</t>
+        </is>
+      </c>
+      <c r="I333" t="inlineStr">
+        <is>
+          <t>-45.803888609960715,170.74428067002106</t>
+        </is>
+      </c>
+      <c r="J333" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-11 22:14:29+00:00</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>-45.79997512410076,170.7416216719604</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>-45.800556126167216,170.7419411114187</t>
+        </is>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>-45.80112448196429,170.74227607423808</t>
+        </is>
+      </c>
+      <c r="E334" t="inlineStr">
+        <is>
+          <t>-45.80165589716065,170.74268190470463</t>
+        </is>
+      </c>
+      <c r="F334" t="inlineStr">
+        <is>
+          <t>-45.80220088225097,170.74307966067553</t>
+        </is>
+      </c>
+      <c r="G334" t="inlineStr">
+        <is>
+          <t>-45.802721278424265,170.7435749440821</t>
+        </is>
+      </c>
+      <c r="H334" t="inlineStr">
+        <is>
+          <t>-45.80323889671299,170.74405522470585</t>
+        </is>
+      </c>
+      <c r="I334" t="inlineStr">
+        <is>
+          <t>-45.8037014276252,170.74465308908202</t>
+        </is>
+      </c>
+      <c r="J334" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0504/nzd0504.xlsx
+++ b/data/nzd0504/nzd0504.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J334"/>
+  <dimension ref="A1:J336"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11509,6 +11509,78 @@
         <v>371.53</v>
       </c>
       <c r="J334" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:14:00+00:00</t>
+        </is>
+      </c>
+      <c r="B335" t="n">
+        <v>377.5336363636364</v>
+      </c>
+      <c r="C335" t="n">
+        <v>373.74</v>
+      </c>
+      <c r="D335" t="n">
+        <v>375.67</v>
+      </c>
+      <c r="E335" t="n">
+        <v>371.3636363636364</v>
+      </c>
+      <c r="F335" t="n">
+        <v>368.86</v>
+      </c>
+      <c r="G335" t="n">
+        <v>367.65</v>
+      </c>
+      <c r="H335" t="n">
+        <v>373.1257142857143</v>
+      </c>
+      <c r="I335" t="n">
+        <v>378.8</v>
+      </c>
+      <c r="J335" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:14:03+00:00</t>
+        </is>
+      </c>
+      <c r="B336" t="n">
+        <v>361.8945454545454</v>
+      </c>
+      <c r="C336" t="n">
+        <v>360.52</v>
+      </c>
+      <c r="D336" t="n">
+        <v>362.01</v>
+      </c>
+      <c r="E336" t="n">
+        <v>363.2745454545454</v>
+      </c>
+      <c r="F336" t="n">
+        <v>358.13</v>
+      </c>
+      <c r="G336" t="n">
+        <v>355.2</v>
+      </c>
+      <c r="H336" t="n">
+        <v>346.2457142857143</v>
+      </c>
+      <c r="I336" t="n">
+        <v>355.05</v>
+      </c>
+      <c r="J336" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -11525,7 +11597,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B385"/>
+  <dimension ref="A1:B388"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15383,6 +15455,36 @@
       </c>
       <c r="B385" t="n">
         <v>-0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>2025-04-26 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B386" t="n">
+        <v>-0.51</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B387" t="n">
+        <v>0.57</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B388" t="n">
+        <v>-0.6899999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -15556,28 +15658,28 @@
         <v>0.0605</v>
       </c>
       <c r="I2" t="n">
-        <v>0.6728007829210194</v>
+        <v>0.6968152440595725</v>
       </c>
       <c r="J2" t="n">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="K2" t="n">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1090556189864339</v>
+        <v>0.1159598533894052</v>
       </c>
       <c r="M2" t="n">
-        <v>10.28445731551749</v>
+        <v>10.34555762653997</v>
       </c>
       <c r="N2" t="n">
-        <v>177.781243897886</v>
+        <v>179.0631859387331</v>
       </c>
       <c r="O2" t="n">
-        <v>13.33346331220385</v>
+        <v>13.38144932130795</v>
       </c>
       <c r="P2" t="n">
-        <v>334.939777072377</v>
+        <v>334.6725284820821</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -15634,28 +15736,28 @@
         <v>0.0697</v>
       </c>
       <c r="I3" t="n">
-        <v>0.6772137900487106</v>
+        <v>0.6941623708349833</v>
       </c>
       <c r="J3" t="n">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="K3" t="n">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1256279654214547</v>
+        <v>0.1316619882818663</v>
       </c>
       <c r="M3" t="n">
-        <v>9.523046315892588</v>
+        <v>9.541401341435625</v>
       </c>
       <c r="N3" t="n">
-        <v>152.9595712763617</v>
+        <v>153.214912274731</v>
       </c>
       <c r="O3" t="n">
-        <v>12.36768253458835</v>
+        <v>12.37800114213644</v>
       </c>
       <c r="P3" t="n">
-        <v>337.5658374248317</v>
+        <v>337.3760299764422</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -15712,28 +15814,28 @@
         <v>0.056</v>
       </c>
       <c r="I4" t="n">
-        <v>0.7529783032836854</v>
+        <v>0.7636435493533907</v>
       </c>
       <c r="J4" t="n">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="K4" t="n">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1483638052437787</v>
+        <v>0.153085982860441</v>
       </c>
       <c r="M4" t="n">
-        <v>9.573007012473372</v>
+        <v>9.563358314376448</v>
       </c>
       <c r="N4" t="n">
-        <v>155.6461661460354</v>
+        <v>155.2621757917974</v>
       </c>
       <c r="O4" t="n">
-        <v>12.47582326526131</v>
+        <v>12.46042438249185</v>
       </c>
       <c r="P4" t="n">
-        <v>341.9308267841993</v>
+        <v>341.8116190380562</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -15790,28 +15892,28 @@
         <v>0.0576</v>
       </c>
       <c r="I5" t="n">
-        <v>0.6637270234541484</v>
+        <v>0.6686478969429288</v>
       </c>
       <c r="J5" t="n">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="K5" t="n">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="L5" t="n">
-        <v>0.142845722132224</v>
+        <v>0.1461504991680999</v>
       </c>
       <c r="M5" t="n">
-        <v>9.004216642190856</v>
+        <v>8.968153733536548</v>
       </c>
       <c r="N5" t="n">
-        <v>127.2584175958405</v>
+        <v>126.5425047484774</v>
       </c>
       <c r="O5" t="n">
-        <v>11.28088726988443</v>
+        <v>11.24911128705185</v>
       </c>
       <c r="P5" t="n">
-        <v>346.7552077516693</v>
+        <v>346.7004868935894</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -15868,28 +15970,28 @@
         <v>0.0531</v>
       </c>
       <c r="I6" t="n">
-        <v>0.6383581503280834</v>
+        <v>0.6400660500104134</v>
       </c>
       <c r="J6" t="n">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="K6" t="n">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1257964955895275</v>
+        <v>0.127713472688666</v>
       </c>
       <c r="M6" t="n">
-        <v>9.039394941645938</v>
+        <v>9.013162444563738</v>
       </c>
       <c r="N6" t="n">
-        <v>137.9675059230802</v>
+        <v>137.1800435581303</v>
       </c>
       <c r="O6" t="n">
-        <v>11.74595700328757</v>
+        <v>11.71238846513086</v>
       </c>
       <c r="P6" t="n">
-        <v>345.8483023901981</v>
+        <v>345.8295223724477</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -15946,28 +16048,28 @@
         <v>0.0547</v>
       </c>
       <c r="I7" t="n">
-        <v>0.651229578507483</v>
+        <v>0.6466747661949828</v>
       </c>
       <c r="J7" t="n">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="K7" t="n">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1227151339627865</v>
+        <v>0.1224009420781988</v>
       </c>
       <c r="M7" t="n">
-        <v>9.199666331470322</v>
+        <v>9.178024724619208</v>
       </c>
       <c r="N7" t="n">
-        <v>144.750248266522</v>
+        <v>144.0615619771527</v>
       </c>
       <c r="O7" t="n">
-        <v>12.03121973311609</v>
+        <v>12.00256480828796</v>
       </c>
       <c r="P7" t="n">
-        <v>347.8686951064158</v>
+        <v>347.9198171282283</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -16024,28 +16126,28 @@
         <v>0.0383</v>
       </c>
       <c r="I8" t="n">
-        <v>0.7981738863001898</v>
+        <v>0.7849020866678987</v>
       </c>
       <c r="J8" t="n">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="K8" t="n">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="L8" t="n">
-        <v>0.146726166243599</v>
+        <v>0.1429241079672771</v>
       </c>
       <c r="M8" t="n">
-        <v>10.25916934886511</v>
+        <v>10.27895356619644</v>
       </c>
       <c r="N8" t="n">
-        <v>173.4890201493978</v>
+        <v>174.136697022348</v>
       </c>
       <c r="O8" t="n">
-        <v>13.17152307629599</v>
+        <v>13.1960864282691</v>
       </c>
       <c r="P8" t="n">
-        <v>348.2964806233351</v>
+        <v>348.4467608407984</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -16102,28 +16204,28 @@
         <v>0.0574</v>
       </c>
       <c r="I9" t="n">
-        <v>0.61373547215614</v>
+        <v>0.6045808156423622</v>
       </c>
       <c r="J9" t="n">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="K9" t="n">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="L9" t="n">
-        <v>0.08903762188481668</v>
+        <v>0.08710211983887062</v>
       </c>
       <c r="M9" t="n">
-        <v>10.18517681183494</v>
+        <v>10.20049608022071</v>
       </c>
       <c r="N9" t="n">
-        <v>176.7586059873422</v>
+        <v>176.7574519839587</v>
       </c>
       <c r="O9" t="n">
-        <v>13.29505945783403</v>
+        <v>13.29501605805569</v>
       </c>
       <c r="P9" t="n">
-        <v>357.1276870148978</v>
+        <v>357.2343641017985</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -16161,7 +16263,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J334"/>
+  <dimension ref="A1:J336"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31613,6 +31715,110 @@
         </is>
       </c>
     </row>
+    <row r="335">
+      <c r="A335" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:14:00+00:00</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>-45.7999444467543,170.74174745004214</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>-45.80053803110661,170.74201154754627</t>
+        </is>
+      </c>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>-45.801097597403945,170.742367640841</t>
+        </is>
+      </c>
+      <c r="E335" t="inlineStr">
+        <is>
+          <t>-45.801653190549644,170.74268925073048</t>
+        </is>
+      </c>
+      <c r="F335" t="inlineStr">
+        <is>
+          <t>-45.80217958640776,170.74313009956106</t>
+        </is>
+      </c>
+      <c r="G335" t="inlineStr">
+        <is>
+          <t>-45.80271283100516,170.74359454884214</t>
+        </is>
+      </c>
+      <c r="H335" t="inlineStr">
+        <is>
+          <t>-45.80319974727993,170.74413843431478</t>
+        </is>
+      </c>
+      <c r="I335" t="inlineStr">
+        <is>
+          <t>-45.803663255924654,170.74472903510576</t>
+        </is>
+      </c>
+      <c r="J335" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:14:03+00:00</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>-45.7999907764682,170.7415574964888</t>
+        </is>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>-45.8005790396203,170.7418519190932</t>
+        </is>
+      </c>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>-45.80114516770174,170.7422056200836</t>
+        </is>
+      </c>
+      <c r="E336" t="inlineStr">
+        <is>
+          <t>-45.8016871108309,170.7425971873868</t>
+        </is>
+      </c>
+      <c r="F336" t="inlineStr">
+        <is>
+          <t>-45.80222947816135,170.74301193154474</t>
+        </is>
+      </c>
+      <c r="G336" t="inlineStr">
+        <is>
+          <t>-45.80277158532829,170.74345819159103</t>
+        </is>
+      </c>
+      <c r="H336" t="inlineStr">
+        <is>
+          <t>-45.803334736152934,170.74385152307067</t>
+        </is>
+      </c>
+      <c r="I336" t="inlineStr">
+        <is>
+          <t>-45.80378795695209,170.7444809304519</t>
+        </is>
+      </c>
+      <c r="J336" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0504/nzd0504.xlsx
+++ b/data/nzd0504/nzd0504.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J336"/>
+  <dimension ref="A1:J337"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11581,6 +11581,42 @@
         <v>355.05</v>
       </c>
       <c r="J336" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-14 22:14:10+00:00</t>
+        </is>
+      </c>
+      <c r="B337" t="n">
+        <v>356.6018181818182</v>
+      </c>
+      <c r="C337" t="n">
+        <v>362.3533333333333</v>
+      </c>
+      <c r="D337" t="n">
+        <v>364.87</v>
+      </c>
+      <c r="E337" t="n">
+        <v>370.3418181818182</v>
+      </c>
+      <c r="F337" t="n">
+        <v>367.85</v>
+      </c>
+      <c r="G337" t="n">
+        <v>368.67</v>
+      </c>
+      <c r="H337" t="n">
+        <v>366.7242857142857</v>
+      </c>
+      <c r="I337" t="n">
+        <v>360.58</v>
+      </c>
+      <c r="J337" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -11597,7 +11633,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B388"/>
+  <dimension ref="A1:B389"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15485,6 +15521,16 @@
       </c>
       <c r="B388" t="n">
         <v>-0.6899999999999999</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>2025-06-14 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B389" t="n">
+        <v>-0.43</v>
       </c>
     </row>
   </sheetData>
@@ -15658,28 +15704,28 @@
         <v>0.0605</v>
       </c>
       <c r="I2" t="n">
-        <v>0.6968152440595725</v>
+        <v>0.6995295495113333</v>
       </c>
       <c r="J2" t="n">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="K2" t="n">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1159598533894052</v>
+        <v>0.1174099351888293</v>
       </c>
       <c r="M2" t="n">
-        <v>10.34555762653997</v>
+        <v>10.32450184546</v>
       </c>
       <c r="N2" t="n">
-        <v>179.0631859387331</v>
+        <v>178.4911080437824</v>
       </c>
       <c r="O2" t="n">
-        <v>13.38144932130795</v>
+        <v>13.3600564386451</v>
       </c>
       <c r="P2" t="n">
-        <v>334.6725284820821</v>
+        <v>334.6421895720598</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -15736,28 +15782,28 @@
         <v>0.0697</v>
       </c>
       <c r="I3" t="n">
-        <v>0.6941623708349833</v>
+        <v>0.6990934833331586</v>
       </c>
       <c r="J3" t="n">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="K3" t="n">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1316619882818663</v>
+        <v>0.1339203863962974</v>
       </c>
       <c r="M3" t="n">
-        <v>9.541401341435625</v>
+        <v>9.533219294009049</v>
       </c>
       <c r="N3" t="n">
-        <v>153.214912274731</v>
+        <v>152.8429361521226</v>
       </c>
       <c r="O3" t="n">
-        <v>12.37800114213644</v>
+        <v>12.36296631687244</v>
       </c>
       <c r="P3" t="n">
-        <v>337.3760299764422</v>
+        <v>337.3205518637366</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -15814,28 +15860,28 @@
         <v>0.056</v>
       </c>
       <c r="I4" t="n">
-        <v>0.7636435493533907</v>
+        <v>0.7660190107361341</v>
       </c>
       <c r="J4" t="n">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="K4" t="n">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L4" t="n">
-        <v>0.153085982860441</v>
+        <v>0.1547400517970965</v>
       </c>
       <c r="M4" t="n">
-        <v>9.563358314376448</v>
+        <v>9.541949229971575</v>
       </c>
       <c r="N4" t="n">
-        <v>155.2621757917974</v>
+        <v>154.7418843645337</v>
       </c>
       <c r="O4" t="n">
-        <v>12.46042438249185</v>
+        <v>12.43952910541769</v>
       </c>
       <c r="P4" t="n">
-        <v>341.8116190380562</v>
+        <v>341.784931578074</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -15892,28 +15938,28 @@
         <v>0.0576</v>
       </c>
       <c r="I5" t="n">
-        <v>0.6686478969429288</v>
+        <v>0.6731606120094547</v>
       </c>
       <c r="J5" t="n">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="K5" t="n">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1461504991680999</v>
+        <v>0.1485450085186334</v>
       </c>
       <c r="M5" t="n">
-        <v>8.968153733536548</v>
+        <v>8.958377234813849</v>
       </c>
       <c r="N5" t="n">
-        <v>126.5425047484774</v>
+        <v>126.2315226718571</v>
       </c>
       <c r="O5" t="n">
-        <v>11.24911128705185</v>
+        <v>11.23528026672486</v>
       </c>
       <c r="P5" t="n">
-        <v>346.7004868935894</v>
+        <v>346.6500254928882</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -15970,28 +16016,28 @@
         <v>0.0531</v>
       </c>
       <c r="I6" t="n">
-        <v>0.6400660500104134</v>
+        <v>0.643954274051353</v>
       </c>
       <c r="J6" t="n">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="K6" t="n">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L6" t="n">
-        <v>0.127713472688666</v>
+        <v>0.1297411829939801</v>
       </c>
       <c r="M6" t="n">
-        <v>9.013162444563738</v>
+        <v>9.001363113006752</v>
       </c>
       <c r="N6" t="n">
-        <v>137.1800435581303</v>
+        <v>136.7888740220501</v>
       </c>
       <c r="O6" t="n">
-        <v>11.71238846513086</v>
+        <v>11.69567757857791</v>
       </c>
       <c r="P6" t="n">
-        <v>345.8295223724477</v>
+        <v>345.7862945621983</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -16048,28 +16094,28 @@
         <v>0.0547</v>
       </c>
       <c r="I7" t="n">
-        <v>0.6466747661949828</v>
+        <v>0.6495449289855456</v>
       </c>
       <c r="J7" t="n">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="K7" t="n">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1224009420781988</v>
+        <v>0.1240430615801414</v>
       </c>
       <c r="M7" t="n">
-        <v>9.178024724619208</v>
+        <v>9.159796892079321</v>
       </c>
       <c r="N7" t="n">
-        <v>144.0615619771527</v>
+        <v>143.6038295727818</v>
       </c>
       <c r="O7" t="n">
-        <v>12.00256480828796</v>
+        <v>11.98348152970504</v>
       </c>
       <c r="P7" t="n">
-        <v>347.9198171282283</v>
+        <v>347.887584227346</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -16126,28 +16172,28 @@
         <v>0.0383</v>
       </c>
       <c r="I8" t="n">
-        <v>0.7849020866678987</v>
+        <v>0.7834800820601751</v>
       </c>
       <c r="J8" t="n">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="K8" t="n">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1429241079672771</v>
+        <v>0.1433119667772279</v>
       </c>
       <c r="M8" t="n">
-        <v>10.27895356619644</v>
+        <v>10.24864896723203</v>
       </c>
       <c r="N8" t="n">
-        <v>174.136697022348</v>
+        <v>173.5241786541178</v>
       </c>
       <c r="O8" t="n">
-        <v>13.1960864282691</v>
+        <v>13.17285764950483</v>
       </c>
       <c r="P8" t="n">
-        <v>348.4467608407984</v>
+        <v>348.4628836321693</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -16204,28 +16250,28 @@
         <v>0.0574</v>
       </c>
       <c r="I9" t="n">
-        <v>0.6045808156423622</v>
+        <v>0.5953071346395413</v>
       </c>
       <c r="J9" t="n">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="K9" t="n">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L9" t="n">
-        <v>0.08710211983887062</v>
+        <v>0.08495328234472443</v>
       </c>
       <c r="M9" t="n">
-        <v>10.20049608022071</v>
+        <v>10.21023270679128</v>
       </c>
       <c r="N9" t="n">
-        <v>176.7574519839587</v>
+        <v>176.6476572991732</v>
       </c>
       <c r="O9" t="n">
-        <v>13.29501605805569</v>
+        <v>13.29088624957618</v>
       </c>
       <c r="P9" t="n">
-        <v>357.2343641017985</v>
+        <v>357.3424881107303</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -16263,7 +16309,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J336"/>
+  <dimension ref="A1:J337"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31819,6 +31865,58 @@
         </is>
       </c>
     </row>
+    <row r="337">
+      <c r="A337" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-14 22:14:10+00:00</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>-45.800006455729886,170.74149321056342</t>
+        </is>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>-45.800573352623694,170.7418740561842</t>
+        </is>
+      </c>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t>-45.801135207907784,170.74223954246062</t>
+        </is>
+      </c>
+      <c r="E337" t="inlineStr">
+        <is>
+          <t>-45.80165747538148,170.74267762124694</t>
+        </is>
+      </c>
+      <c r="F337" t="inlineStr">
+        <is>
+          <t>-45.802184282654636,170.74311897657864</t>
+        </is>
+      </c>
+      <c r="G337" t="inlineStr">
+        <is>
+          <t>-45.802708017390486,170.74360572026703</t>
+        </is>
+      </c>
+      <c r="H337" t="inlineStr">
+        <is>
+          <t>-45.80323189472996,170.74407010699</t>
+        </is>
+      </c>
+      <c r="I337" t="inlineStr">
+        <is>
+          <t>-45.80375892135257,170.7445386997599</t>
+        </is>
+      </c>
+      <c r="J337" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0504/nzd0504.xlsx
+++ b/data/nzd0504/nzd0504.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J337"/>
+  <dimension ref="A1:J339"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11617,6 +11617,78 @@
         <v>360.58</v>
       </c>
       <c r="J337" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-22 22:14:19+00:00</t>
+        </is>
+      </c>
+      <c r="B338" t="n">
+        <v>358.5590909090909</v>
+      </c>
+      <c r="C338" t="n">
+        <v>360.1766666666667</v>
+      </c>
+      <c r="D338" t="n">
+        <v>371.88</v>
+      </c>
+      <c r="E338" t="n">
+        <v>372.5390909090909</v>
+      </c>
+      <c r="F338" t="n">
+        <v>374.9</v>
+      </c>
+      <c r="G338" t="n">
+        <v>374.95</v>
+      </c>
+      <c r="H338" t="n">
+        <v>376.6414285714285</v>
+      </c>
+      <c r="I338" t="n">
+        <v>374.77</v>
+      </c>
+      <c r="J338" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-30 22:14:19+00:00</t>
+        </is>
+      </c>
+      <c r="B339" t="n">
+        <v>359.3727272727273</v>
+      </c>
+      <c r="C339" t="n">
+        <v>360.83</v>
+      </c>
+      <c r="D339" t="n">
+        <v>365.99</v>
+      </c>
+      <c r="E339" t="n">
+        <v>368.8727272727273</v>
+      </c>
+      <c r="F339" t="n">
+        <v>367.37</v>
+      </c>
+      <c r="G339" t="n">
+        <v>368.03</v>
+      </c>
+      <c r="H339" t="n">
+        <v>368.4428571428572</v>
+      </c>
+      <c r="I339" t="n">
+        <v>361.91</v>
+      </c>
+      <c r="J339" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -11633,7 +11705,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B389"/>
+  <dimension ref="A1:B391"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15531,6 +15603,26 @@
       </c>
       <c r="B389" t="n">
         <v>-0.43</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>2025-06-22 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B390" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>2025-06-30 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B391" t="n">
+        <v>0.18</v>
       </c>
     </row>
   </sheetData>
@@ -15704,28 +15796,28 @@
         <v>0.0605</v>
       </c>
       <c r="I2" t="n">
-        <v>0.6995295495113333</v>
+        <v>0.7079803821098257</v>
       </c>
       <c r="J2" t="n">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="K2" t="n">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1174099351888293</v>
+        <v>0.1211418128315579</v>
       </c>
       <c r="M2" t="n">
-        <v>10.32450184546</v>
+        <v>10.29947197481559</v>
       </c>
       <c r="N2" t="n">
-        <v>178.4911080437824</v>
+        <v>177.5187470870179</v>
       </c>
       <c r="O2" t="n">
-        <v>13.3600564386451</v>
+        <v>13.32361614153672</v>
       </c>
       <c r="P2" t="n">
-        <v>334.6421895720598</v>
+        <v>334.5475802751565</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -15782,28 +15874,28 @@
         <v>0.0697</v>
       </c>
       <c r="I3" t="n">
-        <v>0.6990934833331586</v>
+        <v>0.7061237988140818</v>
       </c>
       <c r="J3" t="n">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="K3" t="n">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1339203863962974</v>
+        <v>0.1376580983011021</v>
       </c>
       <c r="M3" t="n">
-        <v>9.533219294009049</v>
+        <v>9.502335806072907</v>
       </c>
       <c r="N3" t="n">
-        <v>152.8429361521226</v>
+        <v>151.9388130676211</v>
       </c>
       <c r="O3" t="n">
-        <v>12.36296631687244</v>
+        <v>12.32634629838141</v>
       </c>
       <c r="P3" t="n">
-        <v>337.3205518637366</v>
+        <v>337.2413281616306</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -15860,28 +15952,28 @@
         <v>0.056</v>
       </c>
       <c r="I4" t="n">
-        <v>0.7660190107361341</v>
+        <v>0.7762603428414102</v>
       </c>
       <c r="J4" t="n">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="K4" t="n">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1547400517970965</v>
+        <v>0.1596410168524064</v>
       </c>
       <c r="M4" t="n">
-        <v>9.541949229971575</v>
+        <v>9.529531887817368</v>
       </c>
       <c r="N4" t="n">
-        <v>154.7418843645337</v>
+        <v>154.0756327282298</v>
       </c>
       <c r="O4" t="n">
-        <v>12.43952910541769</v>
+        <v>12.41272060139234</v>
       </c>
       <c r="P4" t="n">
-        <v>341.784931578074</v>
+        <v>341.669717863452</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -15938,28 +16030,28 @@
         <v>0.0576</v>
       </c>
       <c r="I5" t="n">
-        <v>0.6731606120094547</v>
+        <v>0.6824134935311821</v>
       </c>
       <c r="J5" t="n">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="K5" t="n">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1485450085186334</v>
+        <v>0.1534107606859356</v>
       </c>
       <c r="M5" t="n">
-        <v>8.958377234813849</v>
+        <v>8.940553428458163</v>
       </c>
       <c r="N5" t="n">
-        <v>126.2315226718571</v>
+        <v>125.6629109674739</v>
       </c>
       <c r="O5" t="n">
-        <v>11.23528026672486</v>
+        <v>11.20994696541754</v>
       </c>
       <c r="P5" t="n">
-        <v>346.6500254928882</v>
+        <v>346.5464117180712</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -16016,28 +16108,28 @@
         <v>0.0531</v>
       </c>
       <c r="I6" t="n">
-        <v>0.643954274051353</v>
+        <v>0.6560444003459265</v>
       </c>
       <c r="J6" t="n">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="K6" t="n">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1297411829939801</v>
+        <v>0.1350043032746274</v>
       </c>
       <c r="M6" t="n">
-        <v>9.001363113006752</v>
+        <v>9.001390401758538</v>
       </c>
       <c r="N6" t="n">
-        <v>136.7888740220501</v>
+        <v>136.439599254697</v>
       </c>
       <c r="O6" t="n">
-        <v>11.69567757857791</v>
+        <v>11.68073624626021</v>
       </c>
       <c r="P6" t="n">
-        <v>345.7862945621983</v>
+        <v>345.651697693163</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -16094,28 +16186,28 @@
         <v>0.0547</v>
       </c>
       <c r="I7" t="n">
-        <v>0.6495449289855456</v>
+        <v>0.6590102824697196</v>
       </c>
       <c r="J7" t="n">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="K7" t="n">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1240430615801414</v>
+        <v>0.1283854660089415</v>
       </c>
       <c r="M7" t="n">
-        <v>9.159796892079321</v>
+        <v>9.142498438823077</v>
       </c>
       <c r="N7" t="n">
-        <v>143.6038295727818</v>
+        <v>142.9918211716536</v>
       </c>
       <c r="O7" t="n">
-        <v>11.98348152970504</v>
+        <v>11.9579187642187</v>
       </c>
       <c r="P7" t="n">
-        <v>347.887584227346</v>
+        <v>347.781147980754</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -16172,28 +16264,28 @@
         <v>0.0383</v>
       </c>
       <c r="I8" t="n">
-        <v>0.7834800820601751</v>
+        <v>0.7889087130093362</v>
       </c>
       <c r="J8" t="n">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="K8" t="n">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1433119667772279</v>
+        <v>0.1465412426801759</v>
       </c>
       <c r="M8" t="n">
-        <v>10.24864896723203</v>
+        <v>10.20643302550869</v>
       </c>
       <c r="N8" t="n">
-        <v>173.5241786541178</v>
+        <v>172.5083448616521</v>
       </c>
       <c r="O8" t="n">
-        <v>13.17285764950483</v>
+        <v>13.1342432161755</v>
       </c>
       <c r="P8" t="n">
-        <v>348.4628836321693</v>
+        <v>348.4012737514481</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -16250,28 +16342,28 @@
         <v>0.0574</v>
       </c>
       <c r="I9" t="n">
-        <v>0.5953071346395413</v>
+        <v>0.588778795964815</v>
       </c>
       <c r="J9" t="n">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="K9" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="L9" t="n">
-        <v>0.08495328234472443</v>
+        <v>0.08408841385690013</v>
       </c>
       <c r="M9" t="n">
-        <v>10.21023270679128</v>
+        <v>10.18286518985628</v>
       </c>
       <c r="N9" t="n">
-        <v>176.6476572991732</v>
+        <v>175.7486358782667</v>
       </c>
       <c r="O9" t="n">
-        <v>13.29088624957618</v>
+        <v>13.25702213463743</v>
       </c>
       <c r="P9" t="n">
-        <v>357.3424881107303</v>
+        <v>357.4187863210109</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -16309,7 +16401,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J337"/>
+  <dimension ref="A1:J339"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31917,6 +32009,110 @@
         </is>
       </c>
     </row>
+    <row r="338">
+      <c r="A338" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-22 22:14:19+00:00</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>-45.8000006574775,170.7415169837721</t>
+        </is>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>-45.800580104639174,170.7418477734193</t>
+        </is>
+      </c>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t>-45.80111079592158,170.7423226878174</t>
+        </is>
+      </c>
+      <c r="E338" t="inlineStr">
+        <is>
+          <t>-45.801648261466674,170.74270262877295</t>
+        </is>
+      </c>
+      <c r="F338" t="inlineStr">
+        <is>
+          <t>-45.80215150189802,170.74319661715992</t>
+        </is>
+      </c>
+      <c r="G338" t="inlineStr">
+        <is>
+          <t>-45.80267838060065,170.7436745011549</t>
+        </is>
+      </c>
+      <c r="H338" t="inlineStr">
+        <is>
+          <t>-45.803182091632614,170.74417596017912</t>
+        </is>
+      </c>
+      <c r="I338" t="inlineStr">
+        <is>
+          <t>-45.80368441575966,170.7446869357408</t>
+        </is>
+      </c>
+      <c r="J338" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-30 22:14:19+00:00</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>-45.79999824714816,170.74152686627036</t>
+        </is>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>-45.80057807800118,170.74185566227433</t>
+        </is>
+      </c>
+      <c r="D339" t="inlineStr">
+        <is>
+          <t>-45.80113130756608,170.74225282674493</t>
+        </is>
+      </c>
+      <c r="E339" t="inlineStr">
+        <is>
+          <t>-45.80166363577814,170.74266090127466</t>
+        </is>
+      </c>
+      <c r="F339" t="inlineStr">
+        <is>
+          <t>-45.802186514533965,170.74311369040814</t>
+        </is>
+      </c>
+      <c r="G339" t="inlineStr">
+        <is>
+          <t>-45.80271103769786,170.74359871074574</t>
+        </is>
+      </c>
+      <c r="H339" t="inlineStr">
+        <is>
+          <t>-45.803223264209166,170.74408845061996</t>
+        </is>
+      </c>
+      <c r="I339" t="inlineStr">
+        <is>
+          <t>-45.80375193810256,170.7445525936352</t>
+        </is>
+      </c>
+      <c r="J339" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0504/nzd0504.xlsx
+++ b/data/nzd0504/nzd0504.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J339"/>
+  <dimension ref="A1:J340"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11689,6 +11689,34 @@
         <v>361.91</v>
       </c>
       <c r="J339" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:14:30+00:00</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr"/>
+      <c r="C340" t="inlineStr"/>
+      <c r="D340" t="inlineStr"/>
+      <c r="E340" t="n">
+        <v>334.8345454545454</v>
+      </c>
+      <c r="F340" t="n">
+        <v>340.16</v>
+      </c>
+      <c r="G340" t="n">
+        <v>362.85</v>
+      </c>
+      <c r="H340" t="n">
+        <v>370.0771428571429</v>
+      </c>
+      <c r="I340" t="inlineStr"/>
+      <c r="J340" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -11705,7 +11733,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B391"/>
+  <dimension ref="A1:B392"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15623,6 +15651,16 @@
       </c>
       <c r="B391" t="n">
         <v>0.18</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B392" t="n">
+        <v>0.52</v>
       </c>
     </row>
   </sheetData>
@@ -15799,7 +15837,7 @@
         <v>0.7079803821098257</v>
       </c>
       <c r="J2" t="n">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="K2" t="n">
         <v>288</v>
@@ -15877,7 +15915,7 @@
         <v>0.7061237988140818</v>
       </c>
       <c r="J3" t="n">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="K3" t="n">
         <v>281</v>
@@ -15955,7 +15993,7 @@
         <v>0.7762603428414102</v>
       </c>
       <c r="J4" t="n">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="K4" t="n">
         <v>279</v>
@@ -16030,28 +16068,28 @@
         <v>0.0576</v>
       </c>
       <c r="I5" t="n">
-        <v>0.6824134935311821</v>
+        <v>0.6619916327642987</v>
       </c>
       <c r="J5" t="n">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="K5" t="n">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1534107606859356</v>
+        <v>0.1435247974715302</v>
       </c>
       <c r="M5" t="n">
-        <v>8.940553428458163</v>
+        <v>9.016386598067427</v>
       </c>
       <c r="N5" t="n">
-        <v>125.6629109674739</v>
+        <v>128.2714841134076</v>
       </c>
       <c r="O5" t="n">
-        <v>11.20994696541754</v>
+        <v>11.32570015996396</v>
       </c>
       <c r="P5" t="n">
-        <v>346.5464117180712</v>
+        <v>346.7762149855707</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -16108,28 +16146,28 @@
         <v>0.0531</v>
       </c>
       <c r="I6" t="n">
-        <v>0.6560444003459265</v>
+        <v>0.6404211084162865</v>
       </c>
       <c r="J6" t="n">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="K6" t="n">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1350043032746274</v>
+        <v>0.1287366648391209</v>
       </c>
       <c r="M6" t="n">
-        <v>9.001390401758538</v>
+        <v>9.046657346623013</v>
       </c>
       <c r="N6" t="n">
-        <v>136.439599254697</v>
+        <v>137.7567277441544</v>
       </c>
       <c r="O6" t="n">
-        <v>11.68073624626021</v>
+        <v>11.73698120234306</v>
       </c>
       <c r="P6" t="n">
-        <v>345.651697693163</v>
+        <v>345.826508484374</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -16186,28 +16224,28 @@
         <v>0.0547</v>
       </c>
       <c r="I7" t="n">
-        <v>0.6590102824697196</v>
+        <v>0.6576070174839393</v>
       </c>
       <c r="J7" t="n">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="K7" t="n">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1283854660089415</v>
+        <v>0.1286424312150246</v>
       </c>
       <c r="M7" t="n">
-        <v>9.142498438823077</v>
+        <v>9.117268117869019</v>
       </c>
       <c r="N7" t="n">
-        <v>142.9918211716536</v>
+        <v>142.4990976614229</v>
       </c>
       <c r="O7" t="n">
-        <v>11.9579187642187</v>
+        <v>11.93729859144953</v>
       </c>
       <c r="P7" t="n">
-        <v>347.781147980754</v>
+        <v>347.7970058674852</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -16264,28 +16302,28 @@
         <v>0.0383</v>
       </c>
       <c r="I8" t="n">
-        <v>0.7889087130093362</v>
+        <v>0.7897705086991932</v>
       </c>
       <c r="J8" t="n">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="K8" t="n">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1465412426801759</v>
+        <v>0.1476611121118337</v>
       </c>
       <c r="M8" t="n">
-        <v>10.20643302550869</v>
+        <v>10.1746610408552</v>
       </c>
       <c r="N8" t="n">
-        <v>172.5083448616521</v>
+        <v>171.8996541085795</v>
       </c>
       <c r="O8" t="n">
-        <v>13.1342432161755</v>
+        <v>13.11105083921878</v>
       </c>
       <c r="P8" t="n">
-        <v>348.4012737514481</v>
+        <v>348.3914428243507</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -16345,7 +16383,7 @@
         <v>0.588778795964815</v>
       </c>
       <c r="J9" t="n">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="K9" t="n">
         <v>259</v>
@@ -16401,7 +16439,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J339"/>
+  <dimension ref="A1:J340"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32113,6 +32151,42 @@
         </is>
       </c>
     </row>
+    <row r="340">
+      <c r="A340" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:14:30+00:00</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr"/>
+      <c r="C340" t="inlineStr"/>
+      <c r="D340" t="inlineStr"/>
+      <c r="E340" t="inlineStr">
+        <is>
+          <t>-45.80180636871736,170.74227350595308</t>
+        </is>
+      </c>
+      <c r="F340" t="inlineStr">
+        <is>
+          <t>-45.802313033778134,170.74281402993662</t>
+        </is>
+      </c>
+      <c r="G340" t="inlineStr">
+        <is>
+          <t>-45.80273548329431,170.74354197740536</t>
+        </is>
+      </c>
+      <c r="H340" t="inlineStr">
+        <is>
+          <t>-45.803215056961285,170.74410589459873</t>
+        </is>
+      </c>
+      <c r="I340" t="inlineStr"/>
+      <c r="J340" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0504/nzd0504.xlsx
+++ b/data/nzd0504/nzd0504.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J340"/>
+  <dimension ref="A1:J344"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11700,9 +11700,15 @@
           <t>2025-08-01 22:14:30+00:00</t>
         </is>
       </c>
-      <c r="B340" t="inlineStr"/>
-      <c r="C340" t="inlineStr"/>
-      <c r="D340" t="inlineStr"/>
+      <c r="B340" t="n">
+        <v>317.6645454545454</v>
+      </c>
+      <c r="C340" t="n">
+        <v>316.2866666666667</v>
+      </c>
+      <c r="D340" t="n">
+        <v>322.62</v>
+      </c>
       <c r="E340" t="n">
         <v>334.8345454545454</v>
       </c>
@@ -11717,6 +11723,150 @@
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-25 22:14:39+00:00</t>
+        </is>
+      </c>
+      <c r="B341" t="n">
+        <v>354.2645454545454</v>
+      </c>
+      <c r="C341" t="n">
+        <v>353</v>
+      </c>
+      <c r="D341" t="n">
+        <v>352.41</v>
+      </c>
+      <c r="E341" t="n">
+        <v>356.6645454545454</v>
+      </c>
+      <c r="F341" t="n">
+        <v>359.03</v>
+      </c>
+      <c r="G341" t="n">
+        <v>364.26</v>
+      </c>
+      <c r="H341" t="n">
+        <v>364.8257142857143</v>
+      </c>
+      <c r="I341" t="n">
+        <v>370.65</v>
+      </c>
+      <c r="J341" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-02 22:14:47+00:00</t>
+        </is>
+      </c>
+      <c r="B342" t="n">
+        <v>348.3272727272728</v>
+      </c>
+      <c r="C342" t="n">
+        <v>352.16</v>
+      </c>
+      <c r="D342" t="n">
+        <v>357.9</v>
+      </c>
+      <c r="E342" t="n">
+        <v>361.2372727272728</v>
+      </c>
+      <c r="F342" t="n">
+        <v>367.79</v>
+      </c>
+      <c r="G342" t="n">
+        <v>369.56</v>
+      </c>
+      <c r="H342" t="n">
+        <v>370.1242857142857</v>
+      </c>
+      <c r="I342" t="n">
+        <v>358.8200000000001</v>
+      </c>
+      <c r="J342" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-10 22:14:44+00:00</t>
+        </is>
+      </c>
+      <c r="B343" t="n">
+        <v>349.9645454545454</v>
+      </c>
+      <c r="C343" t="n">
+        <v>345.74</v>
+      </c>
+      <c r="D343" t="n">
+        <v>353.14</v>
+      </c>
+      <c r="E343" t="n">
+        <v>359.9145454545454</v>
+      </c>
+      <c r="F343" t="n">
+        <v>358.28</v>
+      </c>
+      <c r="G343" t="n">
+        <v>356.29</v>
+      </c>
+      <c r="H343" t="n">
+        <v>360.5257142857143</v>
+      </c>
+      <c r="I343" t="n">
+        <v>371.91</v>
+      </c>
+      <c r="J343" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:14:49+00:00</t>
+        </is>
+      </c>
+      <c r="B344" t="n">
+        <v>355.5163636363636</v>
+      </c>
+      <c r="C344" t="n">
+        <v>352.54</v>
+      </c>
+      <c r="D344" t="n">
+        <v>354.93</v>
+      </c>
+      <c r="E344" t="n">
+        <v>367.2963636363637</v>
+      </c>
+      <c r="F344" t="n">
+        <v>366.33</v>
+      </c>
+      <c r="G344" t="n">
+        <v>368.4</v>
+      </c>
+      <c r="H344" t="n">
+        <v>370.9814285714286</v>
+      </c>
+      <c r="I344" t="n">
+        <v>369.79</v>
+      </c>
+      <c r="J344" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -11733,7 +11883,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B392"/>
+  <dimension ref="A1:B396"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15661,6 +15811,46 @@
       </c>
       <c r="B392" t="n">
         <v>0.52</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>2025-08-25 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B393" t="n">
+        <v>-0.6899999999999999</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>2025-09-02 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B394" t="n">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>2025-09-10 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B395" t="n">
+        <v>-0.6899999999999999</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B396" t="n">
+        <v>0.09</v>
       </c>
     </row>
   </sheetData>
@@ -15834,28 +16024,28 @@
         <v>0.0605</v>
       </c>
       <c r="I2" t="n">
-        <v>0.7079803821098257</v>
+        <v>0.6825642043768809</v>
       </c>
       <c r="J2" t="n">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="K2" t="n">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1211418128315579</v>
+        <v>0.1143536916515001</v>
       </c>
       <c r="M2" t="n">
-        <v>10.29947197481559</v>
+        <v>10.27250060587496</v>
       </c>
       <c r="N2" t="n">
-        <v>177.5187470870179</v>
+        <v>178.8109216447549</v>
       </c>
       <c r="O2" t="n">
-        <v>13.32361614153672</v>
+        <v>13.3720201033634</v>
       </c>
       <c r="P2" t="n">
-        <v>334.5475802751565</v>
+        <v>334.8335145587999</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -15912,28 +16102,28 @@
         <v>0.0697</v>
       </c>
       <c r="I3" t="n">
-        <v>0.7061237988140818</v>
+        <v>0.6675211609543876</v>
       </c>
       <c r="J3" t="n">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="K3" t="n">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1376580983011021</v>
+        <v>0.1242702879851407</v>
       </c>
       <c r="M3" t="n">
-        <v>9.502335806072907</v>
+        <v>9.53597878883391</v>
       </c>
       <c r="N3" t="n">
-        <v>151.9388130676211</v>
+        <v>154.9996542011595</v>
       </c>
       <c r="O3" t="n">
-        <v>12.32634629838141</v>
+        <v>12.44988571036536</v>
       </c>
       <c r="P3" t="n">
-        <v>337.2413281616306</v>
+        <v>337.6790571207333</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -15990,28 +16180,28 @@
         <v>0.056</v>
       </c>
       <c r="I4" t="n">
-        <v>0.7762603428414102</v>
+        <v>0.7303977226230405</v>
       </c>
       <c r="J4" t="n">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="K4" t="n">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1596410168524064</v>
+        <v>0.1431968540730517</v>
       </c>
       <c r="M4" t="n">
-        <v>9.529531887817368</v>
+        <v>9.577604366544229</v>
       </c>
       <c r="N4" t="n">
-        <v>154.0756327282298</v>
+        <v>157.416563818584</v>
       </c>
       <c r="O4" t="n">
-        <v>12.41272060139234</v>
+        <v>12.54657578060978</v>
       </c>
       <c r="P4" t="n">
-        <v>341.669717863452</v>
+        <v>342.1891878006946</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -16068,28 +16258,28 @@
         <v>0.0576</v>
       </c>
       <c r="I5" t="n">
-        <v>0.6619916327642987</v>
+        <v>0.6546561939623589</v>
       </c>
       <c r="J5" t="n">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="K5" t="n">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1435247974715302</v>
+        <v>0.1437204014948325</v>
       </c>
       <c r="M5" t="n">
-        <v>9.016386598067427</v>
+        <v>8.952174581573075</v>
       </c>
       <c r="N5" t="n">
-        <v>128.2714841134076</v>
+        <v>126.7731895752185</v>
       </c>
       <c r="O5" t="n">
-        <v>11.32570015996396</v>
+        <v>11.2593600872882</v>
       </c>
       <c r="P5" t="n">
-        <v>346.7762149855707</v>
+        <v>346.8590216583658</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -16146,28 +16336,28 @@
         <v>0.0531</v>
       </c>
       <c r="I6" t="n">
-        <v>0.6404211084162865</v>
+        <v>0.6414000492603378</v>
       </c>
       <c r="J6" t="n">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="K6" t="n">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1287366648391209</v>
+        <v>0.1318503501055659</v>
       </c>
       <c r="M6" t="n">
-        <v>9.046657346623013</v>
+        <v>8.97779809340998</v>
       </c>
       <c r="N6" t="n">
-        <v>137.7567277441544</v>
+        <v>136.0531281150145</v>
       </c>
       <c r="O6" t="n">
-        <v>11.73698120234306</v>
+        <v>11.66418141641386</v>
       </c>
       <c r="P6" t="n">
-        <v>345.826508484374</v>
+        <v>345.8154527391318</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -16224,28 +16414,28 @@
         <v>0.0547</v>
       </c>
       <c r="I7" t="n">
-        <v>0.6576070174839393</v>
+        <v>0.6568301519691279</v>
       </c>
       <c r="J7" t="n">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="K7" t="n">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1286424312150246</v>
+        <v>0.1310391125266444</v>
       </c>
       <c r="M7" t="n">
-        <v>9.117268117869019</v>
+        <v>9.050538730319344</v>
       </c>
       <c r="N7" t="n">
-        <v>142.4990976614229</v>
+        <v>140.8856213853751</v>
       </c>
       <c r="O7" t="n">
-        <v>11.93729859144953</v>
+        <v>11.86952490141771</v>
       </c>
       <c r="P7" t="n">
-        <v>347.7970058674852</v>
+        <v>347.8058296491214</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -16302,28 +16492,28 @@
         <v>0.0383</v>
       </c>
       <c r="I8" t="n">
-        <v>0.7897705086991932</v>
+        <v>0.7833602980414018</v>
       </c>
       <c r="J8" t="n">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="K8" t="n">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1476611121118337</v>
+        <v>0.1487350337525866</v>
       </c>
       <c r="M8" t="n">
-        <v>10.1746610408552</v>
+        <v>10.0854157930203</v>
       </c>
       <c r="N8" t="n">
-        <v>171.8996541085795</v>
+        <v>169.8114690315917</v>
       </c>
       <c r="O8" t="n">
-        <v>13.11105083921878</v>
+        <v>13.03117297220752</v>
       </c>
       <c r="P8" t="n">
-        <v>348.3914428243507</v>
+        <v>348.4648627971923</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -16380,28 +16570,28 @@
         <v>0.0574</v>
       </c>
       <c r="I9" t="n">
-        <v>0.588778795964815</v>
+        <v>0.574356507479165</v>
       </c>
       <c r="J9" t="n">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="K9" t="n">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="L9" t="n">
-        <v>0.08408841385690013</v>
+        <v>0.08203163906513788</v>
       </c>
       <c r="M9" t="n">
-        <v>10.18286518985628</v>
+        <v>10.10418817047623</v>
       </c>
       <c r="N9" t="n">
-        <v>175.7486358782667</v>
+        <v>173.8495811303656</v>
       </c>
       <c r="O9" t="n">
-        <v>13.25702213463743</v>
+        <v>13.18520311297348</v>
       </c>
       <c r="P9" t="n">
-        <v>357.4187863210109</v>
+        <v>357.5887722327002</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -16439,7 +16629,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J340"/>
+  <dimension ref="A1:J344"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32157,9 +32347,21 @@
           <t>2025-08-01 22:14:30+00:00</t>
         </is>
       </c>
-      <c r="B340" t="inlineStr"/>
-      <c r="C340" t="inlineStr"/>
-      <c r="D340" t="inlineStr"/>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>-45.800121803007606,170.74102027399354</t>
+        </is>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>-45.800716250010325,170.74131781013756</t>
+        </is>
+      </c>
+      <c r="D340" t="inlineStr">
+        <is>
+          <t>-45.801282340177686,170.74173841523825</t>
+        </is>
+      </c>
       <c r="E340" t="inlineStr">
         <is>
           <t>-45.80180636871736,170.74227350595308</t>
@@ -32182,6 +32384,214 @@
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-25 22:14:39+00:00</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>-45.800013379693006,170.7414648218347</t>
+        </is>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>-45.800602366600565,170.7417611167251</t>
+        </is>
+      </c>
+      <c r="D341" t="inlineStr">
+        <is>
+          <t>-45.80117859910251,170.74209175467604</t>
+        </is>
+      </c>
+      <c r="E341" t="inlineStr">
+        <is>
+          <t>-45.801714828729246,170.74252195775125</t>
+        </is>
+      </c>
+      <c r="F341" t="inlineStr">
+        <is>
+          <t>-45.80222529339657,170.74302184312913</t>
+        </is>
+      </c>
+      <c r="G341" t="inlineStr">
+        <is>
+          <t>-45.802728829186975,170.74355742026927</t>
+        </is>
+      </c>
+      <c r="H341" t="inlineStr">
+        <is>
+          <t>-45.80324142919202,170.74404984207553</t>
+        </is>
+      </c>
+      <c r="I341" t="inlineStr">
+        <is>
+          <t>-45.80370604813009,170.7446438961588</t>
+        </is>
+      </c>
+      <c r="J341" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-02 22:14:47+00:00</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>-45.80003096830445,170.74139270714548</t>
+        </is>
+      </c>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>-45.80060497226932,170.7417509739028</t>
+        </is>
+      </c>
+      <c r="D342" t="inlineStr">
+        <is>
+          <t>-45.80115948053444,170.74215687147225</t>
+        </is>
+      </c>
+      <c r="E342" t="inlineStr">
+        <is>
+          <t>-45.801695653789196,170.74257400081598</t>
+        </is>
+      </c>
+      <c r="F342" t="inlineStr">
+        <is>
+          <t>-45.802184561639585,170.74311831580735</t>
+        </is>
+      </c>
+      <c r="G342" t="inlineStr">
+        <is>
+          <t>-45.80270381727479,170.7436154678813</t>
+        </is>
+      </c>
+      <c r="H342" t="inlineStr">
+        <is>
+          <t>-45.8032148202137,170.74410639779038</t>
+        </is>
+      </c>
+      <c r="I342" t="inlineStr">
+        <is>
+          <t>-45.80376816234233,170.7445203138745</t>
+        </is>
+      </c>
+      <c r="J342" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-10 22:14:44+00:00</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>-45.80002611804279,170.74141259362287</t>
+        </is>
+      </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>-45.800624886992935,170.7416734537309</t>
+        </is>
+      </c>
+      <c r="D343" t="inlineStr">
+        <is>
+          <t>-45.80117605692717,170.74210041319608</t>
+        </is>
+      </c>
+      <c r="E343" t="inlineStr">
+        <is>
+          <t>-45.8017012004195,170.742558946613</t>
+        </is>
+      </c>
+      <c r="F343" t="inlineStr">
+        <is>
+          <t>-45.80222878070062,170.74301358347557</t>
+        </is>
+      </c>
+      <c r="G343" t="inlineStr">
+        <is>
+          <t>-45.802766441382246,170.74347012970705</t>
+        </is>
+      </c>
+      <c r="H343" t="inlineStr">
+        <is>
+          <t>-45.80326302340752,170.7440039448399</t>
+        </is>
+      </c>
+      <c r="I343" t="inlineStr">
+        <is>
+          <t>-45.80369943240693,170.74465705875292</t>
+        </is>
+      </c>
+      <c r="J343" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:14:49+00:00</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>-45.80000967129357,170.7414800265339</t>
+        </is>
+      </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>-45.8006037935145,170.74175556232254</t>
+        </is>
+      </c>
+      <c r="D344" t="inlineStr">
+        <is>
+          <t>-45.80116982337107,170.74212164435838</t>
+        </is>
+      </c>
+      <c r="E344" t="inlineStr">
+        <is>
+          <t>-45.801670246002935,170.74264296040934</t>
+        </is>
+      </c>
+      <c r="F344" t="inlineStr">
+        <is>
+          <t>-45.802191350271606,170.74310223703728</t>
+        </is>
+      </c>
+      <c r="G344" t="inlineStr">
+        <is>
+          <t>-45.80270929158272,170.74360276312532</t>
+        </is>
+      </c>
+      <c r="H344" t="inlineStr">
+        <is>
+          <t>-45.8032105157119,170.74411554672815</t>
+        </is>
+      </c>
+      <c r="I344" t="inlineStr">
+        <is>
+          <t>-45.80371056362274,170.74463491216423</t>
+        </is>
+      </c>
+      <c r="J344" t="inlineStr">
         <is>
           <t>L9</t>
         </is>

--- a/data/nzd0504/nzd0504.xlsx
+++ b/data/nzd0504/nzd0504.xlsx
@@ -16015,13 +16015,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.055</v>
+        <v>0.2</v>
       </c>
       <c r="G2" t="n">
-        <v>0.048</v>
+        <v>0.1237</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0605</v>
+        <v>0.2</v>
       </c>
       <c r="I2" t="n">
         <v>0.6825294378870284</v>
@@ -16093,13 +16093,13 @@
         <v>0.142921336260921</v>
       </c>
       <c r="F3" t="n">
-        <v>0.06</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0544</v>
+        <v>0.06560000000000001</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0697</v>
+        <v>0.1167</v>
       </c>
       <c r="I3" t="n">
         <v>0.6675270300157619</v>
@@ -16171,13 +16171,13 @@
         <v>0.2857975128516391</v>
       </c>
       <c r="F4" t="n">
-        <v>0.05</v>
+        <v>0.095</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0465</v>
+        <v>0.0726</v>
       </c>
       <c r="H4" t="n">
-        <v>0.056</v>
+        <v>0.1319</v>
       </c>
       <c r="I4" t="n">
         <v>0.7303977226230406</v>
@@ -16249,13 +16249,13 @@
         <v>0.4283947607954482</v>
       </c>
       <c r="F5" t="n">
-        <v>0.055</v>
+        <v>0.065</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0488</v>
+        <v>0.0593</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0576</v>
+        <v>0.0728</v>
       </c>
       <c r="I5" t="n">
         <v>0.6546304025082793</v>
@@ -16327,13 +16327,13 @@
         <v>0.5713160970572476</v>
       </c>
       <c r="F6" t="n">
-        <v>0.05</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0449</v>
+        <v>0.0621</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0531</v>
+        <v>0.08260000000000001</v>
       </c>
       <c r="I6" t="n">
         <v>0.641400049260338</v>
@@ -16405,13 +16405,13 @@
         <v>0.7142374333196366</v>
       </c>
       <c r="F7" t="n">
-        <v>0.05</v>
+        <v>0.075</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0445</v>
+        <v>0.0606</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0547</v>
+        <v>0.0941</v>
       </c>
       <c r="I7" t="n">
         <v>0.6568301519691275</v>
@@ -16483,13 +16483,13 @@
         <v>0.8570786637371341</v>
       </c>
       <c r="F8" t="n">
-        <v>0.035</v>
+        <v>0.05</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0321</v>
+        <v>0.0456</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0383</v>
+        <v>0.058</v>
       </c>
       <c r="I8" t="n">
         <v>0.7833666656906386</v>
@@ -16564,10 +16564,10 @@
         <v>0.05</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0435</v>
+        <v>0.0437</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0574</v>
+        <v>0.0583</v>
       </c>
       <c r="I9" t="n">
         <v>0.5743565074791649</v>
